--- a/medicine/Œil et vue/Syndrome_de_Joubert/Syndrome_de_Joubert.xlsx
+++ b/medicine/Œil et vue/Syndrome_de_Joubert/Syndrome_de_Joubert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  syndrome de Joubert  est un syndrome commençant en période néonatale associant :
 un retard de développement ;
@@ -517,7 +529,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome de Joubert-Boltshauser
 Agénésie du vermis cérébelleux
@@ -549,10 +563,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie fait partie des ciliopathies (maladie des cils cellulaires)[1].
-Pas moins de 15 gènes jouant un rôle dans l'expression du syndrome ont été identifiés. Cela concerne principalement les gènes AHI1 (en) (chromosome 6 humain), NPHP1 (en) codant la protéine néphrocystine, CEP290 et C5ORF42 (en) retrouvé chez la population du Bas-Saint-Laurent au Québec[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie fait partie des ciliopathies (maladie des cils cellulaires).
+Pas moins de 15 gènes jouant un rôle dans l'expression du syndrome ont été identifiés. Cela concerne principalement les gènes AHI1 (en) (chromosome 6 humain), NPHP1 (en) codant la protéine néphrocystine, CEP290 et C5ORF42 (en) retrouvé chez la population du Bas-Saint-Laurent au Québec.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence est de 1 sur 100 000 naissances ; elle est probablement sous-estimée.
 </t>
@@ -614,16 +632,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestations neurologiques
-Un retard de développement[3], des anomalies de la respiration, des accélérations du rythme de la respiration alternant avec des pauses respiratoires et des mouvements anormaux des yeux.Des mouvements rythmiques importants de la langue aboutissent à une hypertrophie de celle-ci.Les épisodes apnéiques s’améliorent souvent avec le temps mais sont responsables de décès de l’enfant.L’intelligence est variable. L’autisme est parfois retrouvé.L'agénésie du vermis cérébelleux fait partie de la description de ce syndrome.
+          <t>Manifestations neurologiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un retard de développement, des anomalies de la respiration, des accélérations du rythme de la respiration alternant avec des pauses respiratoires et des mouvements anormaux des yeux.Des mouvements rythmiques importants de la langue aboutissent à une hypertrophie de celle-ci.Les épisodes apnéiques s’améliorent souvent avec le temps mais sont responsables de décès de l’enfant.L’intelligence est variable. L’autisme est parfois retrouvé.L'agénésie du vermis cérébelleux fait partie de la description de ce syndrome.
 La malformation de Dandy-Walker est décelée dans 10 % des cas.
-Manifestations oculaires
-Nystagmus vertical et horizontal 
-Paralysie de la paupière
-Une rétinite pigmentaire, des pertes de la vision avec des caractéristiques électro rétinographique ressemblant à l’amaurose congénitale de Leber
-Manifestations diverses
-Des kystes rénaux peuvent apparaître au cours de l’enfance
-Il peut exister une polydactylie, un faciès caractéristique, une atteinte du foie[4].
 </t>
         </is>
       </c>
@@ -649,44 +665,125 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Manifestations oculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nystagmus vertical et horizontal 
+Paralysie de la paupière
+Une rétinite pigmentaire, des pertes de la vision avec des caractéristiques électro rétinographique ressemblant à l’amaurose congénitale de Leber
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Manifestations diverses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des kystes rénaux peuvent apparaître au cours de l’enfance
+Il peut exister une polydactylie, un faciès caractéristique, une atteinte du foie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le diagnostic se fait sur la présence de :
 hypotonie avec secondairement ataxie ;
 retard de développement avec retard mental ;
 respiration anormale et/ou mouvement oculaire anormaux.
-Avec en imagerie à résonance magnétique du cerveau, le signe caractéristique d’« aspect en molaire » des pédoncules cérébelleux ou molar tooth sign Molar tooth sign en I.R.M.. Cet aspect est consécutif d'une absence du vermis cérébelleux et des déformations du tronc cérébral[5].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Joubert</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Joubert</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Avec en imagerie à résonance magnétique du cerveau, le signe caractéristique d’« aspect en molaire » des pédoncules cérébelleux ou molar tooth sign Molar tooth sign en I.R.M.. Cet aspect est consécutif d'une absence du vermis cérébelleux et des déformations du tronc cérébral.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La discussion se fait autour des différentes pathologies pouvant donner :
 Un molar tooth sign en imagerie à résonance magnétique :
@@ -704,62 +801,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Joubert</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Joubert</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission autosomique récessive
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Joubert</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Joubert</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Joubert</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
